--- a/Nuno-dataset/ph-as-input/test-solidos-01/content/results/metrics_1_8.xlsx
+++ b/Nuno-dataset/ph-as-input/test-solidos-01/content/results/metrics_1_8.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_24</t>
+          <t>model_1_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9681326246770418</v>
+        <v>0.9835735939480266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9581556809266185</v>
+        <v>0.990596811261916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8727914869843729</v>
+        <v>0.985871346448949</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9156048426966149</v>
+        <v>0.9881301023312076</v>
       </c>
       <c r="F2" t="n">
-        <v>3.843214951841932</v>
+        <v>1.981029460511927</v>
       </c>
       <c r="G2" t="n">
-        <v>3.628428692528893</v>
+        <v>0.7926666857764346</v>
       </c>
       <c r="H2" t="n">
-        <v>22.8023893305565</v>
+        <v>2.707764328935551</v>
       </c>
       <c r="I2" t="n">
-        <v>12.65146986095886</v>
+        <v>1.693889231407512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_23</t>
+          <t>model_1_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9681693834367097</v>
+        <v>0.9854294411302723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9581298794862553</v>
+        <v>0.9892375214584468</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8730023517884069</v>
+        <v>0.9845566358410702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9157156021580761</v>
+        <v>0.9868741238223053</v>
       </c>
       <c r="F3" t="n">
-        <v>3.838781834481774</v>
+        <v>1.757213737790569</v>
       </c>
       <c r="G3" t="n">
-        <v>3.630666001884039</v>
+        <v>0.9072516179241674</v>
       </c>
       <c r="H3" t="n">
-        <v>22.76459137785892</v>
+        <v>2.959729349807819</v>
       </c>
       <c r="I3" t="n">
-        <v>12.63486618329219</v>
+        <v>1.873123166734724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_22</t>
+          <t>model_1_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9682094909431268</v>
+        <v>0.9868212871948223</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9581003063573084</v>
+        <v>0.9877153432368719</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8732366972289555</v>
+        <v>0.9832046692930625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9158383765793606</v>
+        <v>0.9855436525828225</v>
       </c>
       <c r="F4" t="n">
-        <v>3.833944857266629</v>
+        <v>1.589356688010656</v>
       </c>
       <c r="G4" t="n">
-        <v>3.633230364071665</v>
+        <v>1.035567660456632</v>
       </c>
       <c r="H4" t="n">
-        <v>22.72258447245179</v>
+        <v>3.218834492373718</v>
       </c>
       <c r="I4" t="n">
-        <v>12.61646137263472</v>
+        <v>2.062987558841694</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_21</t>
+          <t>model_1_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9682530823096629</v>
+        <v>0.9878476670560035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9580662696727451</v>
+        <v>0.9860985898007727</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8734966906897225</v>
+        <v>0.9818513081690468</v>
       </c>
       <c r="E5" t="n">
-        <v>0.915974247576559</v>
+        <v>0.9841827285134434</v>
       </c>
       <c r="F5" t="n">
-        <v>3.828687725483889</v>
+        <v>1.465574971167505</v>
       </c>
       <c r="G5" t="n">
-        <v>3.636181772664338</v>
+        <v>1.17185617104667</v>
       </c>
       <c r="H5" t="n">
-        <v>22.67598010631885</v>
+        <v>3.478206906208958</v>
       </c>
       <c r="I5" t="n">
-        <v>12.59609328658619</v>
+        <v>2.257197710454496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_20</t>
+          <t>model_1_8_24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9683003212797242</v>
+        <v>0.9882632210732005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9580266759804825</v>
+        <v>0.9642626520537646</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8737853443504655</v>
+        <v>0.9663267656365004</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9161245560630176</v>
+        <v>0.9675425331741824</v>
       </c>
       <c r="F6" t="n">
-        <v>3.822990691630012</v>
+        <v>1.41545903297039</v>
       </c>
       <c r="G6" t="n">
-        <v>3.639615043708776</v>
+        <v>3.012574345152819</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6242383400021</v>
+        <v>6.453494136572458</v>
       </c>
       <c r="I6" t="n">
-        <v>12.57356091213442</v>
+        <v>4.631830456261419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_19</t>
+          <t>model_1_8_23</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9683512819343526</v>
+        <v>0.9883517355223359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9579808383992694</v>
+        <v>0.9646711756277411</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8741052503662261</v>
+        <v>0.9665947157266997</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9162906111515583</v>
+        <v>0.9678396422179752</v>
       </c>
       <c r="F7" t="n">
-        <v>3.816844821509282</v>
+        <v>1.4047841640512</v>
       </c>
       <c r="G7" t="n">
-        <v>3.643589738447577</v>
+        <v>2.97813676908525</v>
       </c>
       <c r="H7" t="n">
-        <v>22.5668945243436</v>
+        <v>6.402141352419665</v>
       </c>
       <c r="I7" t="n">
-        <v>12.54866800340531</v>
+        <v>4.589431623189954</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_0</t>
+          <t>model_1_8_22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9684035542853234</v>
+        <v>0.9884469781607104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9508386119111359</v>
+        <v>0.965121324402065</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8938203094327443</v>
+        <v>0.9668905474405172</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9251971767086619</v>
+        <v>0.9681673673748372</v>
       </c>
       <c r="F8" t="n">
-        <v>3.810540760419116</v>
+        <v>1.393297873506592</v>
       </c>
       <c r="G8" t="n">
-        <v>4.262910594706145</v>
+        <v>2.940190286568686</v>
       </c>
       <c r="H8" t="n">
-        <v>19.03292936861194</v>
+        <v>6.345445039558128</v>
       </c>
       <c r="I8" t="n">
-        <v>11.21350672981135</v>
+        <v>4.542663729349606</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_18</t>
+          <t>model_1_8_21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9684061292226708</v>
+        <v>0.9885490380172598</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9579275305368364</v>
+        <v>0.9656169740063627</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8744606749563494</v>
+        <v>0.9672171210982338</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9164742402038148</v>
+        <v>0.9685287683232265</v>
       </c>
       <c r="F9" t="n">
-        <v>3.810230222208394</v>
+        <v>1.380989424420388</v>
       </c>
       <c r="G9" t="n">
-        <v>3.648212200513462</v>
+        <v>2.898408191144629</v>
       </c>
       <c r="H9" t="n">
-        <v>22.50318393069293</v>
+        <v>6.282857016011515</v>
       </c>
       <c r="I9" t="n">
-        <v>12.52114062512377</v>
+        <v>4.491090144489937</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_17</t>
+          <t>model_1_8_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9684648252776334</v>
+        <v>0.9885876664040931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9578654895259999</v>
+        <v>0.9844403398640587</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8748549337773975</v>
+        <v>0.9805226170259109</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9166770564275446</v>
+        <v>0.9828244155917027</v>
       </c>
       <c r="F10" t="n">
-        <v>3.803151460504278</v>
+        <v>1.376330829467436</v>
       </c>
       <c r="G10" t="n">
-        <v>3.653591936372892</v>
+        <v>1.311642739001055</v>
       </c>
       <c r="H10" t="n">
-        <v>22.4325122207466</v>
+        <v>3.732851304456538</v>
       </c>
       <c r="I10" t="n">
-        <v>12.49073694529406</v>
+        <v>2.451035239236854</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_16</t>
+          <t>model_1_8_20</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9685272564093749</v>
+        <v>0.9886577171296853</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9577926401501036</v>
+        <v>0.966161937492369</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8752921350149002</v>
+        <v>0.9675771153741889</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9169008389568356</v>
+        <v>0.9689267238536731</v>
       </c>
       <c r="F11" t="n">
-        <v>3.795622247428611</v>
+        <v>1.367882691104776</v>
       </c>
       <c r="G11" t="n">
-        <v>3.659908893407652</v>
+        <v>2.852469051523593</v>
       </c>
       <c r="H11" t="n">
-        <v>22.35414299374279</v>
+        <v>6.213863912349512</v>
       </c>
       <c r="I11" t="n">
-        <v>12.45719025831347</v>
+        <v>4.434300051903488</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_15</t>
+          <t>model_1_8_19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9685932384635705</v>
+        <v>0.9887727068105685</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9577072506457389</v>
+        <v>0.9667607495612667</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8757774708347746</v>
+        <v>0.9679736601863327</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9171477171151107</v>
+        <v>0.9693645874476635</v>
       </c>
       <c r="F12" t="n">
-        <v>3.787664792047736</v>
+        <v>1.354014901354319</v>
       </c>
       <c r="G12" t="n">
-        <v>3.667313237283674</v>
+        <v>2.80199060306561</v>
       </c>
       <c r="H12" t="n">
-        <v>22.26714554319102</v>
+        <v>6.137865878052208</v>
       </c>
       <c r="I12" t="n">
-        <v>12.42018136255991</v>
+        <v>4.371814894290382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_14</t>
+          <t>model_1_8_18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9686623441507366</v>
+        <v>0.9888933375641306</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9576069162671037</v>
+        <v>0.9674175550338723</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8763154031573235</v>
+        <v>0.9684101011959564</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9174197710620148</v>
+        <v>0.9698458189947601</v>
       </c>
       <c r="F13" t="n">
-        <v>3.779330625600628</v>
+        <v>1.339466796559262</v>
       </c>
       <c r="G13" t="n">
-        <v>3.676013489703812</v>
+        <v>2.746623447128225</v>
       </c>
       <c r="H13" t="n">
-        <v>22.17072006063908</v>
+        <v>6.054221715268155</v>
       </c>
       <c r="I13" t="n">
-        <v>12.37939842643196</v>
+        <v>4.303140929426847</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_1</t>
+          <t>model_1_8_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.968719836877975</v>
+        <v>0.9890185624290375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9520837653611094</v>
+        <v>0.9681366907830371</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8916188863341202</v>
+        <v>0.9688897661911829</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9243396485102023</v>
+        <v>0.9703738709697765</v>
       </c>
       <c r="F14" t="n">
-        <v>3.772396985578326</v>
+        <v>1.324364640568209</v>
       </c>
       <c r="G14" t="n">
-        <v>4.154940131701071</v>
+        <v>2.686001995534355</v>
       </c>
       <c r="H14" t="n">
-        <v>19.42753901686668</v>
+        <v>5.962293651548515</v>
       </c>
       <c r="I14" t="n">
-        <v>11.34205666685019</v>
+        <v>4.227785473207934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_13</t>
+          <t>model_1_8_5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9687338696378198</v>
+        <v>0.9891044276561374</v>
       </c>
       <c r="C15" t="n">
-        <v>0.957488479409952</v>
+        <v>0.9827810497584204</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8769118386403887</v>
+        <v>0.9792370359086598</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9177190696856456</v>
+        <v>0.9814930243933445</v>
       </c>
       <c r="F15" t="n">
-        <v>3.770704630563058</v>
+        <v>1.31400926861526</v>
       </c>
       <c r="G15" t="n">
-        <v>3.686283454665805</v>
+        <v>1.451516990748329</v>
       </c>
       <c r="H15" t="n">
-        <v>22.0638077654396</v>
+        <v>3.979233642212044</v>
       </c>
       <c r="I15" t="n">
-        <v>12.33453130801805</v>
+        <v>2.641030913725194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_12</t>
+          <t>model_1_8_16</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9688069642221623</v>
+        <v>0.9891468288850973</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9573485272890426</v>
+        <v>0.9689228348507973</v>
       </c>
       <c r="D16" t="n">
-        <v>0.877573035948773</v>
+        <v>0.9694163441675758</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9180482771623779</v>
+        <v>0.9709525056957768</v>
       </c>
       <c r="F16" t="n">
-        <v>3.761889401928866</v>
+        <v>1.308895667778542</v>
       </c>
       <c r="G16" t="n">
-        <v>3.698419063568824</v>
+        <v>2.619731900347333</v>
       </c>
       <c r="H16" t="n">
-        <v>21.94528677896881</v>
+        <v>5.861374688837207</v>
       </c>
       <c r="I16" t="n">
-        <v>12.28518062720933</v>
+        <v>4.145211624751986</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_11</t>
+          <t>model_1_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9688802152305923</v>
+        <v>0.989275967609604</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9571825100757188</v>
+        <v>0.969780435075526</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8783056222865764</v>
+        <v>0.96999349562892</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9184096728486248</v>
+        <v>0.9715854644029382</v>
       </c>
       <c r="F17" t="n">
-        <v>3.753055308503143</v>
+        <v>1.293321499154481</v>
       </c>
       <c r="G17" t="n">
-        <v>3.712814843775495</v>
+        <v>2.547438219257685</v>
       </c>
       <c r="H17" t="n">
-        <v>21.81396916117081</v>
+        <v>5.750763289543283</v>
       </c>
       <c r="I17" t="n">
-        <v>12.2310046913082</v>
+        <v>4.054885493229783</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_2</t>
+          <t>model_1_8_14</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9689326521730716</v>
+        <v>0.9894029033261311</v>
       </c>
       <c r="C18" t="n">
-        <v>0.953111400346154</v>
+        <v>0.9707137947078534</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8896201384135153</v>
+        <v>0.9706250048161145</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9235297898054237</v>
+        <v>0.9722764624387455</v>
       </c>
       <c r="F18" t="n">
-        <v>3.746731397628054</v>
+        <v>1.278013013948671</v>
       </c>
       <c r="G18" t="n">
-        <v>4.06583125509005</v>
+        <v>2.468758198362442</v>
       </c>
       <c r="H18" t="n">
-        <v>19.78581871984281</v>
+        <v>5.629734201788983</v>
       </c>
       <c r="I18" t="n">
-        <v>11.46346058767363</v>
+        <v>3.95627688139188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_10</t>
+          <t>model_1_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9689518241096026</v>
+        <v>0.9894484026423797</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9569851747214817</v>
+        <v>0.9811508268275067</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8791172083476587</v>
+        <v>0.9780074481520298</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9188059230133043</v>
+        <v>0.9802061102719669</v>
       </c>
       <c r="F19" t="n">
-        <v>3.744419256374347</v>
+        <v>1.272525782862559</v>
       </c>
       <c r="G19" t="n">
-        <v>3.729926300652319</v>
+        <v>1.588940948058739</v>
       </c>
       <c r="H19" t="n">
-        <v>21.66849067941401</v>
+        <v>4.214884821191592</v>
       </c>
       <c r="I19" t="n">
-        <v>12.17160380651785</v>
+        <v>2.824679503862495</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_9</t>
+          <t>model_1_8_13</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9690193518856236</v>
+        <v>0.9895234955955231</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9567502069610699</v>
+        <v>0.9717264936080252</v>
       </c>
       <c r="D20" t="n">
-        <v>0.880016096557824</v>
+        <v>0.9713143923333202</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9192397800258095</v>
+        <v>0.9730288612262603</v>
       </c>
       <c r="F20" t="n">
-        <v>3.736275386481124</v>
+        <v>1.26346955035598</v>
       </c>
       <c r="G20" t="n">
-        <v>3.750300960404862</v>
+        <v>2.383390063865948</v>
       </c>
       <c r="H20" t="n">
-        <v>21.50736310668373</v>
+        <v>5.497612699824328</v>
       </c>
       <c r="I20" t="n">
-        <v>12.10656537193156</v>
+        <v>3.848906098638959</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_3</t>
+          <t>model_1_8_12</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9690658764211182</v>
+        <v>0.9896323719624381</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9539607856808312</v>
+        <v>0.97282220010678</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8878073114637279</v>
+        <v>0.9720656099169158</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9227697735115434</v>
+        <v>0.9738462878358919</v>
       </c>
       <c r="F21" t="n">
-        <v>3.730664513648702</v>
+        <v>1.2503390280902</v>
       </c>
       <c r="G21" t="n">
-        <v>3.992178864810949</v>
+        <v>2.291024584118203</v>
       </c>
       <c r="H21" t="n">
-        <v>20.1107717038691</v>
+        <v>5.353641431169495</v>
       </c>
       <c r="I21" t="n">
-        <v>11.57739275562136</v>
+        <v>3.732255545268034</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_8</t>
+          <t>model_1_8_7</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9690794683117214</v>
+        <v>0.9896597237969076</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9564695247068591</v>
+        <v>0.9795717984890543</v>
       </c>
       <c r="D22" t="n">
-        <v>0.881011160162922</v>
+        <v>0.9768419986200784</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9197137515021315</v>
+        <v>0.9789757425176786</v>
       </c>
       <c r="F22" t="n">
-        <v>3.729025327595232</v>
+        <v>1.247040388709705</v>
       </c>
       <c r="G22" t="n">
-        <v>3.774639641669493</v>
+        <v>1.722049321680845</v>
       </c>
       <c r="H22" t="n">
-        <v>21.32899589529022</v>
+        <v>4.43824387365826</v>
       </c>
       <c r="I22" t="n">
-        <v>12.03551347702146</v>
+        <v>3.000258666195077</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_7</t>
+          <t>model_1_8_11</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9691278858924718</v>
+        <v>0.9897222644479405</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9561336630014831</v>
+        <v>0.9740032627825208</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8821121916872374</v>
+        <v>0.9728817654813128</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9202304654798017</v>
+        <v>0.9747314494956566</v>
       </c>
       <c r="F23" t="n">
-        <v>3.723186152941342</v>
+        <v>1.239497967574868</v>
       </c>
       <c r="G23" t="n">
-        <v>3.80376307527994</v>
+        <v>2.191463779485837</v>
       </c>
       <c r="H23" t="n">
-        <v>21.13163371498103</v>
+        <v>5.197224762295066</v>
       </c>
       <c r="I23" t="n">
-        <v>11.95805415916356</v>
+        <v>3.605938887334881</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_4</t>
+          <t>model_1_8_8</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9691385563711594</v>
+        <v>0.9897702231285891</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9546638515092449</v>
+        <v>0.9780594285028322</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8861644916306788</v>
+        <v>0.9757454984411282</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9220606055342881</v>
+        <v>0.9778097939951902</v>
       </c>
       <c r="F24" t="n">
-        <v>3.721899290034686</v>
+        <v>1.233714136409889</v>
       </c>
       <c r="G24" t="n">
-        <v>3.931214215820495</v>
+        <v>1.849538553050958</v>
       </c>
       <c r="H24" t="n">
-        <v>20.40525056023735</v>
+        <v>4.648388744187128</v>
       </c>
       <c r="I24" t="n">
-        <v>11.68370237784707</v>
+        <v>3.16664490655931</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_6</t>
+          <t>model_1_8_10</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9691590414599116</v>
+        <v>0.9897838405313474</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9557307768478034</v>
+        <v>0.9752706226512532</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8833302706858612</v>
+        <v>0.973765816563899</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9207925007038801</v>
+        <v>0.9756865074444611</v>
       </c>
       <c r="F25" t="n">
-        <v>3.719428782232129</v>
+        <v>1.232071873582921</v>
       </c>
       <c r="G25" t="n">
-        <v>3.838698371449302</v>
+        <v>2.084628324533677</v>
       </c>
       <c r="H25" t="n">
-        <v>20.91329053256694</v>
+        <v>5.027795879511958</v>
       </c>
       <c r="I25" t="n">
-        <v>11.87380084504669</v>
+        <v>3.469647706063514</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_5</t>
+          <t>model_1_8_9</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9691656886788512</v>
+        <v>0.9898049876464278</v>
       </c>
       <c r="C26" t="n">
-        <v>0.955246773191718</v>
+        <v>0.9766235721686976</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8846768695751456</v>
+        <v>0.9747200384401535</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9214019484445584</v>
+        <v>0.9767126753385619</v>
       </c>
       <c r="F26" t="n">
-        <v>3.718627125648936</v>
+        <v>1.229521525208087</v>
       </c>
       <c r="G26" t="n">
-        <v>3.880667575200695</v>
+        <v>1.97057786357973</v>
       </c>
       <c r="H26" t="n">
-        <v>20.67190989366438</v>
+        <v>4.844918725006354</v>
       </c>
       <c r="I26" t="n">
-        <v>11.78244003751477</v>
+        <v>3.323208807099505</v>
       </c>
     </row>
   </sheetData>
